--- a/parameterization/register.xlsx
+++ b/parameterization/register.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +256,259 @@
   </si>
   <si>
     <t>获取验证码</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13944096337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入验证码点击下一步</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'z'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dina'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的验证码点击下一步</t>
+    <rPh sb="0" eb="1">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'z'm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-form-item__label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次输入密码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的输入密码</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-form-item__error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码需同时包含字母与数字，长度8-20字符,请再次输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请再次输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入任何信息点击确定按钮</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次输入密码不一致!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的密码不一致</t>
+    <rPh sb="0" eb="1">
+      <t>s'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善基本信息与风险等级评定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的输入</t>
+    <rPh sb="0" eb="1">
+      <t>zheg'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#informationIndex &gt; div.informationIndex_head &gt; h1</t>
   </si>
 </sst>
 </file>
@@ -686,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -776,4 +1032,275 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>